--- a/src/vidiq.xlsx
+++ b/src/vidiq.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>No</t>
   </si>
@@ -31,1087 +31,13 @@
     <t>search_volume</t>
   </si>
   <si>
-    <t>cara antigen sendiri</t>
+    <t>cara membuat nomor halaman skripsi berbeda dalam 1 dokumen word 2010</t>
   </si>
   <si>
     <t>cara buat daftar isi otomatis</t>
   </si>
   <si>
     <t>cara catok rambut curly</t>
-  </si>
-  <si>
-    <t>cara delevingne</t>
-  </si>
-  <si>
-    <t>cara edit video di capcut</t>
-  </si>
-  <si>
-    <t>cara fyp tiktok 2022</t>
-  </si>
-  <si>
-    <t>cara ganti password wifi indihome</t>
-  </si>
-  <si>
-    <t>cara hapus akun instagram</t>
-  </si>
-  <si>
-    <t>cara instal dapodik 2023</t>
-  </si>
-  <si>
-    <t>cara jualan di shopee</t>
-  </si>
-  <si>
-    <t>cara kepang rambut dari atas sampai bawah sendiri</t>
-  </si>
-  <si>
-    <t>cara live di tiktok</t>
-  </si>
-  <si>
-    <t>cara membuat daftar isi</t>
-  </si>
-  <si>
-    <t>cara nembak jawaban utbk sbmptn 2022</t>
-  </si>
-  <si>
-    <t>cara order grab car</t>
-  </si>
-  <si>
-    <t>cara pakai dasi</t>
-  </si>
-  <si>
-    <t>cara qada solat fardhu</t>
-  </si>
-  <si>
-    <t>cara restart iphone</t>
-  </si>
-  <si>
-    <t>cara screenshot di laptop</t>
-  </si>
-  <si>
-    <t>cara top up flazz via mobile banking</t>
-  </si>
-  <si>
-    <t>cara upload video ke youtube</t>
-  </si>
-  <si>
-    <t>cara video call di laptop menggunakan whatsapp web</t>
-  </si>
-  <si>
-    <t>cara wudhu yang benar</t>
-  </si>
-  <si>
-    <t>cara x ray di minecraft</t>
-  </si>
-  <si>
-    <t>cara youtube tetap jalan saat buka aplikasi lain</t>
-  </si>
-  <si>
-    <t>cara zoom di laptop</t>
-  </si>
-  <si>
-    <t>cara aktivasi office 2019</t>
-  </si>
-  <si>
-    <t>cara bungkus kado simple</t>
-  </si>
-  <si>
-    <t>cara curly rambut dengan catok</t>
-  </si>
-  <si>
-    <t>cara download stumble guys di laptop</t>
-  </si>
-  <si>
-    <t>cara edit sikok bagi duo</t>
-  </si>
-  <si>
-    <t>cara fillet paha ayam</t>
-  </si>
-  <si>
-    <t>cara gambar anime</t>
-  </si>
-  <si>
-    <t>cara hapus akun google</t>
-  </si>
-  <si>
-    <t>cara isi token listrik</t>
-  </si>
-  <si>
-    <t>cara jualan di tiktok shop</t>
-  </si>
-  <si>
-    <t>cara kunci aplikasi di iphone</t>
-  </si>
-  <si>
-    <t>cara lupakanmu</t>
-  </si>
-  <si>
-    <t>cara membuat halaman di word</t>
-  </si>
-  <si>
-    <t>cara naik pesawat bagi pemula</t>
-  </si>
-  <si>
-    <t>cara ome tv server luar negeri</t>
-  </si>
-  <si>
-    <t>cara pasang tempered glass</t>
-  </si>
-  <si>
-    <t>cara qodho sholat fardhu</t>
-  </si>
-  <si>
-    <t>cara registrasi kartu telkomsel</t>
-  </si>
-  <si>
-    <t>cara sadap whatsapp jarak jauh terbaru 2022</t>
-  </si>
-  <si>
-    <t>cara transfer data iphone lama ke iphone baru</t>
-  </si>
-  <si>
-    <t>cara uninstal aplikasi di laptop</t>
-  </si>
-  <si>
-    <t>cara verifikasi akun dapodik 2023</t>
-  </si>
-  <si>
-    <t>cara withdraw binance</t>
-  </si>
-  <si>
-    <t>cara xml alight motion</t>
-  </si>
-  <si>
-    <t>cara youtube premium 1 bulan gratis</t>
-  </si>
-  <si>
-    <t>cara zoom di capcut</t>
-  </si>
-  <si>
-    <t>cara aktifkan hotspot di iphone</t>
-  </si>
-  <si>
-    <t>cara buat halaman di word</t>
-  </si>
-  <si>
-    <t>cara ceroboh untuk mencinta</t>
-  </si>
-  <si>
-    <t>cara download video di youtube</t>
-  </si>
-  <si>
-    <t>cara edit video tiktok</t>
-  </si>
-  <si>
-    <t>cara fillet dada ayam</t>
-  </si>
-  <si>
-    <t>cara ganti wallpaper laptop</t>
-  </si>
-  <si>
-    <t>cara headshot free fire</t>
-  </si>
-  <si>
-    <t>cara instal ulang windows 10</t>
-  </si>
-  <si>
-    <t>cara jumper aki mobil</t>
-  </si>
-  <si>
-    <t>cara kirim foto lewat dokumen wa iphone</t>
-  </si>
-  <si>
-    <t>cara logout akun google</t>
-  </si>
-  <si>
-    <t>cara membuat daftar isi otomatis</t>
-  </si>
-  <si>
-    <t>cara ngeprint di laptop</t>
-  </si>
-  <si>
-    <t>cara ombre lipstik</t>
-  </si>
-  <si>
-    <t>cara pasang grip raket badminton</t>
-  </si>
-  <si>
-    <t>cara queen walk th9</t>
-  </si>
-  <si>
-    <t>cara reset iphone</t>
-  </si>
-  <si>
-    <t>cara swab antigen sendiri di rumah</t>
-  </si>
-  <si>
-    <t>cara tayamum yang benar</t>
-  </si>
-  <si>
-    <t>cara update ios</t>
-  </si>
-  <si>
-    <t>cara verifikasi akun youtube</t>
-  </si>
-  <si>
-    <t>cara waxing sendiri di rumah</t>
-  </si>
-  <si>
-    <t>cara xavier</t>
-  </si>
-  <si>
-    <t>cara youtube tetap jalan saat buka aplikasi lain iphone</t>
-  </si>
-  <si>
-    <t>cara zip file</t>
-  </si>
-  <si>
-    <t>cara agar laptop tidak lemot</t>
-  </si>
-  <si>
-    <t>cara cek imei iphone</t>
-  </si>
-  <si>
-    <t>cara download game di laptop</t>
-  </si>
-  <si>
-    <t>cara edit pdf</t>
-  </si>
-  <si>
-    <t>cara fotocopy ktp bolak balik</t>
-  </si>
-  <si>
-    <t>cara ganti akun ml</t>
-  </si>
-  <si>
-    <t>cara hide history mobile legend</t>
-  </si>
-  <si>
-    <t>cara ikat tali sepatu keren</t>
-  </si>
-  <si>
-    <t>cara jual foto di shutterstock</t>
-  </si>
-  <si>
-    <t>cara kompres file pdf</t>
-  </si>
-  <si>
-    <t>cara logout akun ml</t>
-  </si>
-  <si>
-    <t>cara memakai dasi</t>
-  </si>
-  <si>
-    <t>cara ngeblok jawaban utbk 2022</t>
-  </si>
-  <si>
-    <t>cara olah data kuesioner dengan spss</t>
-  </si>
-  <si>
-    <t>cara pakai eyeliner</t>
-  </si>
-  <si>
-    <t>cara quote tweet di twitter</t>
-  </si>
-  <si>
-    <t>cara record di laptop</t>
-  </si>
-  <si>
-    <t>cara share screen di zoom</t>
-  </si>
-  <si>
-    <t>cara tanam bawang merah</t>
-  </si>
-  <si>
-    <t>cara uji normalitas dengan spss</t>
-  </si>
-  <si>
-    <t>cara verifikasi akun ptk di dapodik 2022</t>
-  </si>
-  <si>
-    <t>cara wudhu yang benar untuk wanita</t>
-  </si>
-  <si>
-    <t>cara xiaomi wifi extender</t>
-  </si>
-  <si>
-    <t>cara youtube tanpa iklan</t>
-  </si>
-  <si>
-    <t>cara zoom meeting di hp</t>
-  </si>
-  <si>
-    <t>cara aktivasi windows 10</t>
-  </si>
-  <si>
-    <t>cara buat stiker whatsapp sendiri</t>
-  </si>
-  <si>
-    <t>cara cetak tiket bioskop tix id</t>
-  </si>
-  <si>
-    <t>cara download lagu di youtube</t>
-  </si>
-  <si>
-    <t>cara edit jedag jedug di capcut</t>
-  </si>
-  <si>
-    <t>cara foto produk dengan hp</t>
-  </si>
-  <si>
-    <t>cara ganti background zoom di hp</t>
-  </si>
-  <si>
-    <t>cara highlight rambut sendiri</t>
-  </si>
-  <si>
-    <t>cara ikat pita</t>
-  </si>
-  <si>
-    <t>cara jadi dropship di shopee</t>
-  </si>
-  <si>
-    <t>cara klaim bpjs ketenagakerjaan online</t>
-  </si>
-  <si>
-    <t>cara logout netflix di tv</t>
-  </si>
-  <si>
-    <t>cara membesarkan otot lengan dan suspect di rumah</t>
-  </si>
-  <si>
-    <t>cara naik mrt jakarta</t>
-  </si>
-  <si>
-    <t>cara off wa tapi data hidup</t>
-  </si>
-  <si>
-    <t>cara pasang dasi</t>
-  </si>
-  <si>
-    <t>cara qodho sholat magrib ke isya</t>
-  </si>
-  <si>
-    <t>cara reset printer epson l3110</t>
-  </si>
-  <si>
-    <t>cara sampul buku</t>
-  </si>
-  <si>
-    <t>cara transfer shopeepay ke dana</t>
-  </si>
-  <si>
-    <t>cara update ios 15.4</t>
-  </si>
-  <si>
-    <t>cara video tiktok kita masuk fyp</t>
-  </si>
-  <si>
-    <t>cara waxing ketiak</t>
-  </si>
-  <si>
-    <t>cara xml</t>
-  </si>
-  <si>
-    <t>cara youtuber pemula dapat uang</t>
-  </si>
-  <si>
-    <t>cara zoom tiktok</t>
-  </si>
-  <si>
-    <t>cara aktifkan shopee paylater</t>
-  </si>
-  <si>
-    <t>cara backup whatsapp</t>
-  </si>
-  <si>
-    <t>cara cek iphone second</t>
-  </si>
-  <si>
-    <t>cara dapat robux gratis</t>
-  </si>
-  <si>
-    <t>cara edit video sikok bagi duo</t>
-  </si>
-  <si>
-    <t>cara flash hp xiaomi</t>
-  </si>
-  <si>
-    <t>cara ganti password wifi</t>
-  </si>
-  <si>
-    <t>cara hapus background di photoshop</t>
-  </si>
-  <si>
-    <t>cara investasi di bibit</t>
-  </si>
-  <si>
-    <t>cara jadi hacker</t>
-  </si>
-  <si>
-    <t>cara kerja shopee affiliate</t>
-  </si>
-  <si>
-    <t>cara login disney  hotstar di tv</t>
-  </si>
-  <si>
-    <t>cara mencintaimu anggi marito</t>
-  </si>
-  <si>
-    <t>cara naik kereta api bagi pemula</t>
-  </si>
-  <si>
-    <t>cara order shopee food</t>
-  </si>
-  <si>
-    <t>cara parkir mobil mundur</t>
-  </si>
-  <si>
-    <t>cara queen walk th10</t>
-  </si>
-  <si>
-    <t>cara registrasi kartu indosat</t>
-  </si>
-  <si>
-    <t>cara setor tunai atm bca</t>
-  </si>
-  <si>
-    <t>cara tanda tangan di word</t>
-  </si>
-  <si>
-    <t>cara uninstall dapodik 2022</t>
-  </si>
-  <si>
-    <t>cara vakum ac</t>
-  </si>
-  <si>
-    <t>cara wantek baju</t>
-  </si>
-  <si>
-    <t>cara x ray di tlauncher</t>
-  </si>
-  <si>
-    <t>cara youtube premium 4 bulan gratis</t>
-  </si>
-  <si>
-    <t>cara zoom video di capcut</t>
-  </si>
-  <si>
-    <t>cara agar status wa tidak buram</t>
-  </si>
-  <si>
-    <t>cara bungkus kado</t>
-  </si>
-  <si>
-    <t>cara cek 3utools iphone</t>
-  </si>
-  <si>
-    <t>cara download aplikasi di laptop</t>
-  </si>
-  <si>
-    <t>cara edit sikok bagi duo di capcut</t>
-  </si>
-  <si>
-    <t>cara foto aesthetic</t>
-  </si>
-  <si>
-    <t>cara ganti akun stumble guys</t>
-  </si>
-  <si>
-    <t>cara hapus akun telegram</t>
-  </si>
-  <si>
-    <t>cara ikat dasi</t>
-  </si>
-  <si>
-    <t>cara jedag jedug di capcut</t>
-  </si>
-  <si>
-    <t>cara keluar dari grup wa tanpa diketahui</t>
-  </si>
-  <si>
-    <t>cara lapor spt tahunan pribadi online</t>
-  </si>
-  <si>
-    <t>cara membuat daftar isi otomatis word 2010</t>
-  </si>
-  <si>
-    <t>cara nonton ejen ali musim 3</t>
-  </si>
-  <si>
-    <t>cara oplas zepeto</t>
-  </si>
-  <si>
-    <t>cara pakai softlens bagi pemula</t>
-  </si>
-  <si>
-    <t>cara qris dana</t>
-  </si>
-  <si>
-    <t>cara reapply sunscreen</t>
-  </si>
-  <si>
-    <t>cara smash badminton yang keras</t>
-  </si>
-  <si>
-    <t>cara tidur cepat</t>
-  </si>
-  <si>
-    <t>cara update windows 11</t>
-  </si>
-  <si>
-    <t>cara voice chat di roblox</t>
-  </si>
-  <si>
-    <t>cara wudhu</t>
-  </si>
-  <si>
-    <t>cara xiaomi jadi iphone</t>
-  </si>
-  <si>
-    <t>cara yakin kepada allah swt</t>
-  </si>
-  <si>
-    <t>cara zakat fitrah yang benar</t>
-  </si>
-  <si>
-    <t>cara agar suara bagus saat bernyanyi</t>
-  </si>
-  <si>
-    <t>cara bermain gitar untuk pemula</t>
-  </si>
-  <si>
-    <t>cara cat rambut sendiri</t>
-  </si>
-  <si>
-    <t>cara daftar shopee affiliate</t>
-  </si>
-  <si>
-    <t>cara edit video</t>
-  </si>
-  <si>
-    <t>cara fyp di tiktok dan banyak yang like</t>
-  </si>
-  <si>
-    <t>cara ganti nama fb</t>
-  </si>
-  <si>
-    <t>cara hapus kontak di iphone</t>
-  </si>
-  <si>
-    <t>cara isi tinta epson l3110</t>
-  </si>
-  <si>
-    <t>cara jadi youtuber pemula</t>
-  </si>
-  <si>
-    <t>cara kirim pulsa telkomsel</t>
-  </si>
-  <si>
-    <t>cara linting rokok tembakau</t>
-  </si>
-  <si>
-    <t>cara membuat google form</t>
-  </si>
-  <si>
-    <t>cara naik motor kopling</t>
-  </si>
-  <si>
-    <t>cara order di tiktok shop</t>
-  </si>
-  <si>
-    <t>cara potong rambut sendiri pendek wanita</t>
-  </si>
-  <si>
-    <t>cara qadha shalat fardhu</t>
-  </si>
-  <si>
-    <t>cara repost story instagram dengan background</t>
-  </si>
-  <si>
-    <t>cara sinkron dapodik 2023</t>
-  </si>
-  <si>
-    <t>cara top up paypal</t>
-  </si>
-  <si>
-    <t>cara uji validitas dengan spss</t>
-  </si>
-  <si>
-    <t>cara verifikasi channel youtube</t>
-  </si>
-  <si>
-    <t>cara wantek celana jeans hitam</t>
-  </si>
-  <si>
-    <t>cara x ray di server kandang alwi</t>
-  </si>
-  <si>
-    <t>cara yoga pemula</t>
-  </si>
-  <si>
-    <t>cara zeroing teleskop senapan</t>
-  </si>
-  <si>
-    <t>cara agar tulisan rapi dan bagus</t>
-  </si>
-  <si>
-    <t>cara belajar bahasa inggris</t>
-  </si>
-  <si>
-    <t>cara download stumble guys di pc</t>
-  </si>
-  <si>
-    <t>cara edit pdf di laptop</t>
-  </si>
-  <si>
-    <t>cara fotocopy bolak balik</t>
-  </si>
-  <si>
-    <t>cara gambar orang</t>
-  </si>
-  <si>
-    <t>cara hapus akun facebook</t>
-  </si>
-  <si>
-    <t>cara isi flazz di mobile banking</t>
-  </si>
-  <si>
-    <t>cara jahit tangan yang rapi</t>
-  </si>
-  <si>
-    <t>cara kredit hp di shopee</t>
-  </si>
-  <si>
-    <t>cara logout gmail</t>
-  </si>
-  <si>
-    <t>cara menghapus halaman kosong di word</t>
-  </si>
-  <si>
-    <t>cara nonton film kkn desa penari full movie 2022</t>
-  </si>
-  <si>
-    <t>cara overclock laptop</t>
-  </si>
-  <si>
-    <t>cara private akun twitter</t>
-  </si>
-  <si>
-    <t>cara qris bca</t>
-  </si>
-  <si>
-    <t>cara registrasi dapodik 2023 offline</t>
-  </si>
-  <si>
-    <t>cara shortcut di stumble guys</t>
-  </si>
-  <si>
-    <t>cara transfer pulsa telkomsel</t>
-  </si>
-  <si>
-    <t>cara unmute story instagram</t>
-  </si>
-  <si>
-    <t>cara virtual account mandiri</t>
-  </si>
-  <si>
-    <t>cara withdraw tokocrypto</t>
-  </si>
-  <si>
-    <t>cara x ray</t>
-  </si>
-  <si>
-    <t>cara youtube premium gratis</t>
-  </si>
-  <si>
-    <t>cara zoom di photoshop</t>
-  </si>
-  <si>
-    <t>cara ambil uang di atm bri</t>
-  </si>
-  <si>
-    <t>cara buat daftar isi</t>
-  </si>
-  <si>
-    <t>cara cepat tidur</t>
-  </si>
-  <si>
-    <t>cara download minecraft di laptop</t>
-  </si>
-  <si>
-    <t>cara edit video di vn</t>
-  </si>
-  <si>
-    <t>cara find my iphone</t>
-  </si>
-  <si>
-    <t>cara ganti password instagram</t>
-  </si>
-  <si>
-    <t>cara hapus video di tiktok</t>
-  </si>
-  <si>
-    <t>cara install windows 10</t>
-  </si>
-  <si>
-    <t>cara jualan di tokopedia</t>
-  </si>
-  <si>
-    <t>cara kasih halaman di word</t>
-  </si>
-  <si>
-    <t>cara lacak hp pake nomor hp</t>
-  </si>
-  <si>
-    <t>cara membuat daftar tabel otomatis</t>
-  </si>
-  <si>
-    <t>cara nonton kkn desa penari di telegram</t>
-  </si>
-  <si>
-    <t>cara outlier data spss</t>
-  </si>
-  <si>
-    <t>cara pasang gas 3 kg</t>
-  </si>
-  <si>
-    <t>cara quick login roblox</t>
-  </si>
-  <si>
-    <t>cara reset hp samsung</t>
-  </si>
-  <si>
-    <t>cara screenshot iphone</t>
-  </si>
-  <si>
-    <t>cara transfer shopeepay ke shopeepay</t>
-  </si>
-  <si>
-    <t>cara update ios 16</t>
-  </si>
-  <si>
-    <t>cara vibrasi suara</t>
-  </si>
-  <si>
-    <t>cara waxing miss v agar tidak sakit</t>
-  </si>
-  <si>
-    <t>cara xmp ram</t>
-  </si>
-  <si>
-    <t>cara yoona membungkus snack</t>
-  </si>
-  <si>
-    <t>cara aktivasi akun ppdb 2022</t>
-  </si>
-  <si>
-    <t>cara bayar shopee paylater</t>
-  </si>
-  <si>
-    <t>cara cek skor utbk 2022</t>
-  </si>
-  <si>
-    <t>cara download video tiktok tanpa watermark</t>
-  </si>
-  <si>
-    <t>cara edit background foto</t>
-  </si>
-  <si>
-    <t>cara fake gps mobile legend</t>
-  </si>
-  <si>
-    <t>cara ganti background di photoshop</t>
-  </si>
-  <si>
-    <t>cara hapus cache di iphone</t>
-  </si>
-  <si>
-    <t>cara ikat pita baju</t>
-  </si>
-  <si>
-    <t>cara jadi vtuber</t>
-  </si>
-  <si>
-    <t>cara kupas nanas yang benar</t>
-  </si>
-  <si>
-    <t>cara lapor pph</t>
-  </si>
-  <si>
-    <t>cara mengecilkan perut</t>
-  </si>
-  <si>
-    <t>cara nambahin follow ig</t>
-  </si>
-  <si>
-    <t>cara open bo untuk pemula</t>
-  </si>
-  <si>
-    <t>cara push up yang benar bagi pemula</t>
-  </si>
-  <si>
-    <t>cara quick start iphone</t>
-  </si>
-  <si>
-    <t>cara repost story instagram</t>
-  </si>
-  <si>
-    <t>cara sholat idul fitri</t>
-  </si>
-  <si>
-    <t>cara tarik tunai bca tanpa kartu atm</t>
-  </si>
-  <si>
-    <t>cara upload video tiktok hd</t>
-  </si>
-  <si>
-    <t>cara vakum makanan tanpa mesin vakum</t>
-  </si>
-  <si>
-    <t>cara warnain rambut highlight sendiri</t>
-  </si>
-  <si>
-    <t>cara x8 speeder higgs domino tanpa iklan</t>
-  </si>
-  <si>
-    <t>cara youtube bisa latar belakang</t>
-  </si>
-  <si>
-    <t>cara zoom in zoom out di adobe premiere</t>
-  </si>
-  <si>
-    <t>cara ajukan pengembalian barang di shopee</t>
-  </si>
-  <si>
-    <t>cara belajar bahasa inggris dengan cepat dan mudah</t>
-  </si>
-  <si>
-    <t>cara cepat belajar bahasa inggris</t>
-  </si>
-  <si>
-    <t>cara daftar mypertamina</t>
-  </si>
-  <si>
-    <t>cara edit video untuk youtube</t>
-  </si>
-  <si>
-    <t>cara foto yang bagus dengan hp</t>
-  </si>
-  <si>
-    <t>cara ganti nama airdrop</t>
-  </si>
-  <si>
-    <t>cara hotspot iphone</t>
-  </si>
-  <si>
-    <t>cara install ulang windows 7</t>
-  </si>
-  <si>
-    <t>cara jadi affiliate tiktok</t>
-  </si>
-  <si>
-    <t>cara kucing kawin</t>
-  </si>
-  <si>
-    <t>cara live tiktok tanpa 1000 followers</t>
-  </si>
-  <si>
-    <t>cara membuat buket snack</t>
-  </si>
-  <si>
-    <t>cara nyalain hotspot iphone</t>
-  </si>
-  <si>
-    <t>cara oper gigi mobil manual secara halus</t>
-  </si>
-  <si>
-    <t>cara pesan tiket bioskop online</t>
-  </si>
-  <si>
-    <t>cara qurban</t>
-  </si>
-  <si>
-    <t>cara reply dm ig</t>
-  </si>
-  <si>
-    <t>cara sinkronisasi dapodik 2023</t>
-  </si>
-  <si>
-    <t>cara transfer gopay ke dana</t>
-  </si>
-  <si>
-    <t>cara uninstall aplikasi di laptop</t>
-  </si>
-  <si>
-    <t>cara velocity di capcut</t>
-  </si>
-  <si>
-    <t>cara whatsapp tidak terlihat online dan mengetik</t>
-  </si>
-  <si>
-    <t>cara x ray di server anti xray</t>
-  </si>
-  <si>
-    <t>cara youtube premium</t>
-  </si>
-  <si>
-    <t>cara ziarah kubur yang benar</t>
-  </si>
-  <si>
-    <t>cara ambil uang di atm bca</t>
-  </si>
-  <si>
-    <t>cara buat akun baru mobile legend</t>
-  </si>
-  <si>
-    <t>cara cat tembok yang benar</t>
-  </si>
-  <si>
-    <t>cara daftar tiktok affiliate</t>
-  </si>
-  <si>
-    <t>cara edit foto di photoshop</t>
-  </si>
-  <si>
-    <t>cara face id pakai masker</t>
-  </si>
-  <si>
-    <t>cara gambar</t>
-  </si>
-  <si>
-    <t>cara hapus halaman di word</t>
-  </si>
-  <si>
-    <t>cara interview kerja yang baik</t>
-  </si>
-  <si>
-    <t>cara jualan di tiktok</t>
-  </si>
-  <si>
-    <t>cara kerja ac</t>
-  </si>
-  <si>
-    <t>cara live tiktok di pc</t>
-  </si>
-  <si>
-    <t>cara melihat pesan wa yg sudah dihapus</t>
-  </si>
-  <si>
-    <t>cara nobar di telegram</t>
-  </si>
-  <si>
-    <t>cara oplas zepeto cantik</t>
-  </si>
-  <si>
-    <t>cara pakai rok lilit</t>
-  </si>
-  <si>
-    <t>cara queen walk th11</t>
-  </si>
-  <si>
-    <t>cara registrasi kartu xl</t>
-  </si>
-  <si>
-    <t>cara save video tiktok tanpa watermark</t>
-  </si>
-  <si>
-    <t>cara transfer gopay ke gopay</t>
-  </si>
-  <si>
-    <t>cara ungkep ayam</t>
-  </si>
-  <si>
-    <t>cara verifikasi akun ppdb online 2022</t>
-  </si>
-  <si>
-    <t>cara withdraw indodax ke bank</t>
-  </si>
-  <si>
-    <t>cara xmp preset</t>
-  </si>
-  <si>
-    <t>cara youtube shorts banyak viewer</t>
-  </si>
-  <si>
-    <t>cara zip dokumen di laptop</t>
-  </si>
-  <si>
-    <t>cara aktifkan m banking bca</t>
-  </si>
-  <si>
-    <t>cara bedong bayi yang benar</t>
-  </si>
-  <si>
-    <t>cara crop foto di photoshop</t>
-  </si>
-  <si>
-    <t>cara download valorant di laptop</t>
-  </si>
-  <si>
-    <t>cara eksfoliasi wajah</t>
-  </si>
-  <si>
-    <t>cara fokus belajar</t>
-  </si>
-  <si>
-    <t>cara gendong bayi baru lahir</t>
-  </si>
-  <si>
-    <t>cara hapus aplikasi di laptop</t>
-  </si>
-  <si>
-    <t>cara ikat tali sepatu</t>
-  </si>
-  <si>
-    <t>cara jadi pro player free fire</t>
-  </si>
-  <si>
-    <t>cara kompres video</t>
-  </si>
-  <si>
-    <t>cara lapor diri ppdb 2022</t>
-  </si>
-  <si>
-    <t>cara mewing yang benar</t>
-  </si>
-  <si>
-    <t>cara ngedit di capcut</t>
-  </si>
-  <si>
-    <t>cara overlay di capcut</t>
-  </si>
-  <si>
-    <t>cara perpanjang sim online</t>
-  </si>
-  <si>
-    <t>cara question musik di instagram</t>
-  </si>
-  <si>
-    <t>cara restore chat whatsapp</t>
-  </si>
-  <si>
-    <t>cara sholat tahajud</t>
-  </si>
-  <si>
-    <t>cara top up dana</t>
-  </si>
-  <si>
-    <t>cara update windows 7 ke windows 10</t>
-  </si>
-  <si>
-    <t>cara verifikasi pin google adsense</t>
-  </si>
-  <si>
-    <t>cara wheelie motor kopling</t>
-  </si>
-  <si>
-    <t>cara x ray di minecraft 1.19</t>
-  </si>
-  <si>
-    <t>cara your connection is not private</t>
-  </si>
-  <si>
-    <t>cara zoom unlimited gratis</t>
   </si>
 </sst>
 </file>
@@ -1476,7 +402,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:G2"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1540,2885 +466,1095 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>41</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>42</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>43</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>44</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>45</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>46</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>47</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>48</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>49</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>50</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>51</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>52</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>53</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>54</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>55</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>56</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>57</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>58</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>59</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>60</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>61</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>62</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>63</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>64</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>65</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>66</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>67</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>68</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>69</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>70</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>71</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>72</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>73</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>74</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>75</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>76</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>77</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>78</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>79</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>80</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>81</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>82</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>83</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>84</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>85</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>86</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>87</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <v>88</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>89</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>90</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>91</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>92</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>93</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>94</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
-        <v>95</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>96</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>97</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>98</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <v>99</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
-        <v>100</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
-        <v>101</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <v>102</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <v>103</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
-        <v>104</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
-        <v>105</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
-        <v>106</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
-        <v>107</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
-        <v>108</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
-        <v>109</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
-        <v>110</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
-        <v>111</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
-        <v>112</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
-        <v>113</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
-        <v>114</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
-        <v>115</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
-        <v>116</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
-        <v>117</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
-        <v>118</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
-        <v>119</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
-        <v>120</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
-        <v>121</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
-        <v>122</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
-        <v>123</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
-        <v>124</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
-        <v>125</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
-        <v>126</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
-        <v>127</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
-        <v>128</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
-        <v>129</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
-        <v>130</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
-        <v>131</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
-        <v>132</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
-        <v>133</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
-        <v>134</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
-        <v>135</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
-        <v>136</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
-        <v>137</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="2">
-        <v>138</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="2">
-        <v>139</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="2">
-        <v>140</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
-        <v>141</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="2">
-        <v>142</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="2">
-        <v>143</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="2">
-        <v>144</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="2">
-        <v>145</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="2">
-        <v>146</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="2">
-        <v>147</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="2">
-        <v>148</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
-        <v>149</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="2">
-        <v>150</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="2">
-        <v>151</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="2">
-        <v>152</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="2">
-        <v>153</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="2">
-        <v>154</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="2">
-        <v>155</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="2">
-        <v>156</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="2">
-        <v>157</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="2">
-        <v>158</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="2">
-        <v>159</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="2">
-        <v>160</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="2">
-        <v>161</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="2">
-        <v>162</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="2">
-        <v>163</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="2">
-        <v>164</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="2">
-        <v>165</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="2">
-        <v>166</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="2">
-        <v>167</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="2">
-        <v>168</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
-        <v>169</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="2">
-        <v>170</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
-        <v>171</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
-        <v>172</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="2">
-        <v>173</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="2">
-        <v>174</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="2">
-        <v>175</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="2">
-        <v>176</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="2">
-        <v>177</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="2">
-        <v>178</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="2">
-        <v>179</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="2">
-        <v>180</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="2">
-        <v>181</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="2">
-        <v>182</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="2">
-        <v>183</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="2">
-        <v>184</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="2">
-        <v>185</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="2">
-        <v>186</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="2">
-        <v>187</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="2">
-        <v>188</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="2">
-        <v>189</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="2">
-        <v>190</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="2">
-        <v>191</v>
-      </c>
-      <c r="B192" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="2">
-        <v>192</v>
-      </c>
-      <c r="B193" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="2">
-        <v>193</v>
-      </c>
-      <c r="B194" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="2">
-        <v>194</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="2">
-        <v>195</v>
-      </c>
-      <c r="B196" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="2">
-        <v>196</v>
-      </c>
-      <c r="B197" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="2">
-        <v>197</v>
-      </c>
-      <c r="B198" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="2">
-        <v>198</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="2">
-        <v>199</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="2">
-        <v>200</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="2">
-        <v>201</v>
-      </c>
-      <c r="B202" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="2">
-        <v>202</v>
-      </c>
-      <c r="B203" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="2">
-        <v>203</v>
-      </c>
-      <c r="B204" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="2">
-        <v>204</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="2">
-        <v>205</v>
-      </c>
-      <c r="B206" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="2">
-        <v>206</v>
-      </c>
-      <c r="B207" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="2">
-        <v>207</v>
-      </c>
-      <c r="B208" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="2">
-        <v>208</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="2">
-        <v>209</v>
-      </c>
-      <c r="B210" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="2">
-        <v>210</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="2">
-        <v>211</v>
-      </c>
-      <c r="B212" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="2">
-        <v>212</v>
-      </c>
-      <c r="B213" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="2">
-        <v>213</v>
-      </c>
-      <c r="B214" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="2">
-        <v>214</v>
-      </c>
-      <c r="B215" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="2">
-        <v>215</v>
-      </c>
-      <c r="B216" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="2">
-        <v>216</v>
-      </c>
-      <c r="B217" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="2">
-        <v>217</v>
-      </c>
-      <c r="B218" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="2">
-        <v>218</v>
-      </c>
-      <c r="B219" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="2">
-        <v>219</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="2">
-        <v>220</v>
-      </c>
-      <c r="B221" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="2">
-        <v>221</v>
-      </c>
-      <c r="B222" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="2">
-        <v>222</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="2">
-        <v>223</v>
-      </c>
-      <c r="B224" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="2">
-        <v>224</v>
-      </c>
-      <c r="B225" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="2">
-        <v>225</v>
-      </c>
-      <c r="B226" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="2">
-        <v>226</v>
-      </c>
-      <c r="B227" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="2">
-        <v>227</v>
-      </c>
-      <c r="B228" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="2">
-        <v>228</v>
-      </c>
-      <c r="B229" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="2">
-        <v>229</v>
-      </c>
-      <c r="B230" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="2">
-        <v>230</v>
-      </c>
-      <c r="B231" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="2">
-        <v>231</v>
-      </c>
-      <c r="B232" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="2">
-        <v>232</v>
-      </c>
-      <c r="B233" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="2">
-        <v>233</v>
-      </c>
-      <c r="B234" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="2">
-        <v>234</v>
-      </c>
-      <c r="B235" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="2">
-        <v>235</v>
-      </c>
-      <c r="B236" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="2">
-        <v>236</v>
-      </c>
-      <c r="B237" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="2">
-        <v>237</v>
-      </c>
-      <c r="B238" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="2">
-        <v>238</v>
-      </c>
-      <c r="B239" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="2">
-        <v>239</v>
-      </c>
-      <c r="B240" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="2">
-        <v>240</v>
-      </c>
-      <c r="B241" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="2">
-        <v>241</v>
-      </c>
-      <c r="B242" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="2">
-        <v>242</v>
-      </c>
-      <c r="B243" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="2">
-        <v>243</v>
-      </c>
-      <c r="B244" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="2">
-        <v>244</v>
-      </c>
-      <c r="B245" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="2">
-        <v>245</v>
-      </c>
-      <c r="B246" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="2">
-        <v>246</v>
-      </c>
-      <c r="B247" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="2">
-        <v>247</v>
-      </c>
-      <c r="B248" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="2">
-        <v>248</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="2">
-        <v>249</v>
-      </c>
-      <c r="B250" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="2">
-        <v>250</v>
-      </c>
-      <c r="B251" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="2">
-        <v>251</v>
-      </c>
-      <c r="B252" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="2">
-        <v>252</v>
-      </c>
-      <c r="B253" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="2">
-        <v>253</v>
-      </c>
-      <c r="B254" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="2">
-        <v>254</v>
-      </c>
-      <c r="B255" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="2">
-        <v>255</v>
-      </c>
-      <c r="B256" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="2">
-        <v>256</v>
-      </c>
-      <c r="B257" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="2">
-        <v>257</v>
-      </c>
-      <c r="B258" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="2">
-        <v>258</v>
-      </c>
-      <c r="B259" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="2">
-        <v>259</v>
-      </c>
-      <c r="B260" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="2">
-        <v>260</v>
-      </c>
-      <c r="B261" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="2">
-        <v>261</v>
-      </c>
-      <c r="B262" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="2">
-        <v>262</v>
-      </c>
-      <c r="B263" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="2">
-        <v>263</v>
-      </c>
-      <c r="B264" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="2">
-        <v>264</v>
-      </c>
-      <c r="B265" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="2">
-        <v>265</v>
-      </c>
-      <c r="B266" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="2">
-        <v>266</v>
-      </c>
-      <c r="B267" s="5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="2">
-        <v>267</v>
-      </c>
-      <c r="B268" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="2">
-        <v>268</v>
-      </c>
-      <c r="B269" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="2">
-        <v>269</v>
-      </c>
-      <c r="B270" s="5" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="2">
-        <v>270</v>
-      </c>
-      <c r="B271" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="2">
-        <v>271</v>
-      </c>
-      <c r="B272" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="2">
-        <v>272</v>
-      </c>
-      <c r="B273" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="2">
-        <v>273</v>
-      </c>
-      <c r="B274" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="2">
-        <v>274</v>
-      </c>
-      <c r="B275" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="2">
-        <v>275</v>
-      </c>
-      <c r="B276" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="2">
-        <v>276</v>
-      </c>
-      <c r="B277" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="2">
-        <v>277</v>
-      </c>
-      <c r="B278" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="2">
-        <v>278</v>
-      </c>
-      <c r="B279" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="2">
-        <v>279</v>
-      </c>
-      <c r="B280" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="2">
-        <v>280</v>
-      </c>
-      <c r="B281" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="2">
-        <v>281</v>
-      </c>
-      <c r="B282" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="2">
-        <v>282</v>
-      </c>
-      <c r="B283" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="2">
-        <v>283</v>
-      </c>
-      <c r="B284" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="2">
-        <v>284</v>
-      </c>
-      <c r="B285" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="2">
-        <v>285</v>
-      </c>
-      <c r="B286" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="2">
-        <v>286</v>
-      </c>
-      <c r="B287" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="2">
-        <v>287</v>
-      </c>
-      <c r="B288" s="5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="2">
-        <v>288</v>
-      </c>
-      <c r="B289" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="2">
-        <v>289</v>
-      </c>
-      <c r="B290" s="5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="2">
-        <v>290</v>
-      </c>
-      <c r="B291" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="2">
-        <v>291</v>
-      </c>
-      <c r="B292" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="2">
-        <v>292</v>
-      </c>
-      <c r="B293" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="2">
-        <v>293</v>
-      </c>
-      <c r="B294" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="2">
-        <v>294</v>
-      </c>
-      <c r="B295" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="2">
-        <v>295</v>
-      </c>
-      <c r="B296" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="2">
-        <v>296</v>
-      </c>
-      <c r="B297" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="2">
-        <v>297</v>
-      </c>
-      <c r="B298" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="2">
-        <v>298</v>
-      </c>
-      <c r="B299" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="2">
-        <v>299</v>
-      </c>
-      <c r="B300" s="5" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="2">
-        <v>300</v>
-      </c>
-      <c r="B301" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="2">
-        <v>301</v>
-      </c>
-      <c r="B302" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="2">
-        <v>302</v>
-      </c>
-      <c r="B303" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="2">
-        <v>303</v>
-      </c>
-      <c r="B304" s="5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="2">
-        <v>304</v>
-      </c>
-      <c r="B305" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="2">
-        <v>305</v>
-      </c>
-      <c r="B306" s="5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="2">
-        <v>306</v>
-      </c>
-      <c r="B307" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="2">
-        <v>307</v>
-      </c>
-      <c r="B308" s="5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="2">
-        <v>308</v>
-      </c>
-      <c r="B309" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="2">
-        <v>309</v>
-      </c>
-      <c r="B310" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="2">
-        <v>310</v>
-      </c>
-      <c r="B311" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="2">
-        <v>311</v>
-      </c>
-      <c r="B312" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="2">
-        <v>312</v>
-      </c>
-      <c r="B313" s="5" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="2">
-        <v>313</v>
-      </c>
-      <c r="B314" s="5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="2">
-        <v>314</v>
-      </c>
-      <c r="B315" s="5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="2">
-        <v>315</v>
-      </c>
-      <c r="B316" s="5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="2">
-        <v>316</v>
-      </c>
-      <c r="B317" s="5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="2">
-        <v>317</v>
-      </c>
-      <c r="B318" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="2">
-        <v>318</v>
-      </c>
-      <c r="B319" s="5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="2">
-        <v>319</v>
-      </c>
-      <c r="B320" s="5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="2">
-        <v>320</v>
-      </c>
-      <c r="B321" s="5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="2">
-        <v>321</v>
-      </c>
-      <c r="B322" s="5" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="2">
-        <v>322</v>
-      </c>
-      <c r="B323" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="2">
-        <v>323</v>
-      </c>
-      <c r="B324" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="2">
-        <v>324</v>
-      </c>
-      <c r="B325" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="2">
-        <v>325</v>
-      </c>
-      <c r="B326" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="2">
-        <v>326</v>
-      </c>
-      <c r="B327" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="2">
-        <v>327</v>
-      </c>
-      <c r="B328" s="5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="2">
-        <v>328</v>
-      </c>
-      <c r="B329" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="2">
-        <v>329</v>
-      </c>
-      <c r="B330" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="2">
-        <v>330</v>
-      </c>
-      <c r="B331" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="2">
-        <v>331</v>
-      </c>
-      <c r="B332" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="2">
-        <v>332</v>
-      </c>
-      <c r="B333" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="2">
-        <v>333</v>
-      </c>
-      <c r="B334" s="5" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="2">
-        <v>334</v>
-      </c>
-      <c r="B335" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="2">
-        <v>335</v>
-      </c>
-      <c r="B336" s="5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="2">
-        <v>336</v>
-      </c>
-      <c r="B337" s="5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="2">
-        <v>337</v>
-      </c>
-      <c r="B338" s="5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="2">
-        <v>338</v>
-      </c>
-      <c r="B339" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="2">
-        <v>339</v>
-      </c>
-      <c r="B340" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="2">
-        <v>340</v>
-      </c>
-      <c r="B341" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="2">
-        <v>341</v>
-      </c>
-      <c r="B342" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="2">
-        <v>342</v>
-      </c>
-      <c r="B343" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="2">
-        <v>343</v>
-      </c>
-      <c r="B344" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="2">
-        <v>344</v>
-      </c>
-      <c r="B345" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" s="2">
-        <v>345</v>
-      </c>
-      <c r="B346" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="2">
-        <v>346</v>
-      </c>
-      <c r="B347" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="2">
-        <v>347</v>
-      </c>
-      <c r="B348" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" s="2">
-        <v>348</v>
-      </c>
-      <c r="B349" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="2">
-        <v>349</v>
-      </c>
-      <c r="B350" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" s="2">
-        <v>350</v>
-      </c>
-      <c r="B351" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" s="2">
-        <v>351</v>
-      </c>
-      <c r="B352" s="5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" s="2">
-        <v>352</v>
-      </c>
-      <c r="B353" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="2">
-        <v>353</v>
-      </c>
-      <c r="B354" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" s="2">
-        <v>354</v>
-      </c>
-      <c r="B355" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" s="2">
-        <v>355</v>
-      </c>
-      <c r="B356" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" s="2">
-        <v>356</v>
-      </c>
-      <c r="B357" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" s="2">
-        <v>357</v>
-      </c>
-      <c r="B358" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" s="2">
-        <v>358</v>
-      </c>
-      <c r="B359" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" s="2">
-        <v>359</v>
-      </c>
-      <c r="B360" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" s="2">
-        <v>360</v>
-      </c>
-      <c r="B361" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" s="2">
-        <v>361</v>
-      </c>
-      <c r="B362" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="2"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="2"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="2"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="2"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="2"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="2"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="2"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="2"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="2"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="2"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="2"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="2"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="2"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="2"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="2"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="2"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="2"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="2"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="2"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="2"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="2"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="2"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="2"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="2"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="2"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="2"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="2"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="2"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="2"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="2"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="2"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="2"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="2"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="2"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="2"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="2"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="2"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="2"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="2"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="2"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="2"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="2"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="2"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="2"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="2"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="2"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="2"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="2"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="2"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="2"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="2"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="2"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="2"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="2"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="2"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="2"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="2"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="2"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="2"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="2"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="2"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="2"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="2"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="2"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="2"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="2"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="2"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="2"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="2"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="2"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="2"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="2"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="2"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="2"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="2"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="2"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="2"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="2"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="2"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="2"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="2"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="2"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="2"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="2"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="2"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="2"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="2"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="2"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="2"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="2"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="2"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="2"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="2"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="2"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="2"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="2"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="2"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="2"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="2"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="2"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="2"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="2"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="2"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="2"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="2"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="2"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="2"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="2"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="2"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="2"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="2"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="2"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="2"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="2"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="2"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="2"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="2"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="2"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="2"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="2"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="2"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="2"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="2"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="2"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="2"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="2"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="2"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="2"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="2"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="2"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="2"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="2"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="2"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="2"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="2"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="2"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="2"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="2"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="2"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="2"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="2"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="2"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="2"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="2"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="2"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="2"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="2"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="2"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="2"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="2"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="2"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="2"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="2"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="2"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="2"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="2"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="2"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="2"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="2"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="2"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="2"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="2"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="2"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="2"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="2"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="2"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="2"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="2"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="2"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="2"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="2"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="2"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="2"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="2"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="2"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="2"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="2"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="2"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="2"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="2"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="2"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="2"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="2"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="2"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="2"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="2"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="2"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="2"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="2"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="2"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="2"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="2"/>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="2"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="2"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="2"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="2"/>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="2"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="2"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="2"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="2"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="2"/>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="2"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="2"/>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="2"/>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
